--- a/Data/TrustMark_Glossary raw file.xlsx
+++ b/Data/TrustMark_Glossary raw file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Glossary WIP\trustmark-glossary\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E57245B-F2E4-42A7-B472-8FA0FB76526C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1061C471-946F-42A8-BC1D-3AD569EBDE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="120" windowWidth="23016" windowHeight="13656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="22164" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="488">
   <si>
     <t>Domain</t>
   </si>
@@ -2286,9 +2286,6 @@
   </si>
   <si>
     <t>Find &amp; Fix - EWI Performance Indicators dashboard</t>
-  </si>
-  <si>
-    <t>Insurance Backed Guarantee</t>
   </si>
   <si>
     <t>DESNZ</t>
@@ -2419,7 +2416,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2442,10 +2439,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2799,11 +2792,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F221"/>
+  <dimension ref="A1:F220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A222" sqref="A222"/>
+      <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B218" sqref="B218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6274,39 +6267,39 @@
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A217" s="2" t="s">
-        <v>401</v>
+      <c r="A217" t="s">
+        <v>480</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D217" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A218" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D218" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A218" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="B218" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>7</v>
@@ -6315,31 +6308,17 @@
         <v>312</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A221" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D221" s="2" t="s">
         <v>313</v>
       </c>
     </row>
@@ -6350,7 +6329,7 @@
     </sortState>
   </autoFilter>
   <dataValidations count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B196 E203:E205 A218 A197:B216 E213:E216" xr:uid="{580F6754-85D6-4483-A88C-BDE52A62AAC9}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B196 E203:E205 A217 A197:B216 E213:E216" xr:uid="{580F6754-85D6-4483-A88C-BDE52A62AAC9}"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="F107" r:id="rId1" xr:uid="{D69F219F-3811-465C-8772-373BE5FB2D1F}"/>
@@ -6364,13 +6343,13 @@
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>E195 B195 A796:A840</xm:sqref>
+          <xm:sqref>E195 B195 A795:A839</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9995116D-AF03-49E2-B186-C142F64F6C88}">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D448</xm:sqref>
+          <xm:sqref>D2:D447</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6432,14 +6411,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="88ebd88c-02b9-4f51-b0de-dd3becf8de8a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="96a83f3b-8347-4ba1-82f9-fe673303b220" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6638,21 +6615,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="88ebd88c-02b9-4f51-b0de-dd3becf8de8a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="96a83f3b-8347-4ba1-82f9-fe673303b220" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD79C434-4B1B-4646-B50D-548016E545B3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27B72F3A-D025-4AC7-B6CD-F802C9C57606}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="88ebd88c-02b9-4f51-b0de-dd3becf8de8a"/>
-    <ds:schemaRef ds:uri="96a83f3b-8347-4ba1-82f9-fe673303b220"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6677,9 +6653,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27B72F3A-D025-4AC7-B6CD-F802C9C57606}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD79C434-4B1B-4646-B50D-548016E545B3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="88ebd88c-02b9-4f51-b0de-dd3becf8de8a"/>
+    <ds:schemaRef ds:uri="96a83f3b-8347-4ba1-82f9-fe673303b220"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data/TrustMark_Glossary raw file.xlsx
+++ b/Data/TrustMark_Glossary raw file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Glossary WIP\trustmark-glossary\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1061C471-946F-42A8-BC1D-3AD569EBDE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD66910-8BF7-42FF-A793-32163DA2568F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="22164" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="22164" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="1" r:id="rId1"/>
@@ -2795,8 +2795,8 @@
   <dimension ref="A1:F220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B218" sqref="B218"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2995,7 +2995,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>463</v>
       </c>
@@ -3281,41 +3281,38 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>329</v>
+        <v>484</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>330</v>
+        <v>485</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>6</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>11</v>
+        <v>329</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>12</v>
+        <v>330</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>7</v>
@@ -3329,10 +3326,10 @@
     </row>
     <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>7</v>
@@ -3341,92 +3338,89 @@
         <v>6</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>358</v>
+        <v>16</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>331</v>
+        <v>17</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>18</v>
+        <v>358</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>15</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>359</v>
+        <v>18</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>332</v>
+        <v>19</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="2" t="s">
-        <v>20</v>
+        <v>359</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="5"/>
       <c r="F35" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>15</v>
@@ -3434,137 +3428,140 @@
     </row>
     <row r="37" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>408</v>
+        <v>27</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>409</v>
+        <v>28</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>312</v>
+        <v>6</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>317</v>
+        <v>408</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>6</v>
+        <v>315</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>318</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>20</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>360</v>
+        <v>30</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>333</v>
+        <v>31</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>32</v>
+        <v>360</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>15</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>23</v>
@@ -3578,66 +3575,66 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>361</v>
+        <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>334</v>
+        <v>45</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>6</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>47</v>
+        <v>399</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>400</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>23</v>
@@ -3646,15 +3643,15 @@
         <v>6</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>23</v>
@@ -3663,15 +3660,15 @@
         <v>6</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>23</v>
@@ -3680,15 +3677,15 @@
         <v>6</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>23</v>
@@ -3697,15 +3694,15 @@
         <v>6</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>23</v>
@@ -3714,15 +3711,15 @@
         <v>6</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>23</v>
@@ -3731,15 +3728,15 @@
         <v>6</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>23</v>
@@ -3748,32 +3745,32 @@
         <v>6</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>7</v>
@@ -3782,271 +3779,265 @@
         <v>6</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>362</v>
+        <v>69</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>335</v>
+        <v>70</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E61" s="5"/>
-      <c r="F61" s="2" t="s">
-        <v>8</v>
+        <v>362</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="5"/>
       <c r="F62" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>363</v>
+        <v>75</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>336</v>
+        <v>76</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>77</v>
+      <c r="A65" t="s">
+        <v>480</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>481</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E66" s="5"/>
-      <c r="F66" s="2" t="s">
-        <v>39</v>
+        <v>363</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>364</v>
+        <v>77</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>337</v>
+        <v>78</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>310</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="5"/>
       <c r="F68" s="2" t="s">
-        <v>323</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>81</v>
+        <v>364</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>20</v>
+        <v>337</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E70" s="5"/>
+        <v>321</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>310</v>
+      </c>
       <c r="F70" s="2" t="s">
-        <v>39</v>
+        <v>323</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>365</v>
+        <v>482</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>338</v>
+        <v>483</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="5"/>
       <c r="F73" s="2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>39</v>
+        <v>338</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>386</v>
+        <v>87</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>7</v>
@@ -4055,15 +4046,15 @@
         <v>6</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>387</v>
+        <v>89</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>7</v>
@@ -4072,68 +4063,74 @@
         <v>6</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>339</v>
+        <v>385</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>92</v>
+        <v>386</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>340</v>
+        <v>96</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>97</v>
+        <v>367</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>8</v>
+        <v>339</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>23</v>
@@ -4141,47 +4138,44 @@
       <c r="D82" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E82" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="F82" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>416</v>
+        <v>368</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>23</v>
@@ -4195,18 +4189,24 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>341</v>
+        <v>417</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>23</v>
@@ -4215,24 +4215,21 @@
         <v>6</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>99</v>
@@ -4240,172 +4237,163 @@
     </row>
     <row r="89" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>111</v>
+        <v>369</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>8</v>
+        <v>341</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>370</v>
+        <v>106</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>342</v>
+        <v>107</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>371</v>
+        <v>108</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>343</v>
+        <v>109</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>372</v>
+        <v>111</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>344</v>
+        <v>112</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>113</v>
+        <v>370</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>68</v>
+        <v>342</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>116</v>
+        <v>371</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>115</v>
+        <v>343</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>118</v>
+        <v>372</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>15</v>
+        <v>344</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>373</v>
+        <v>113</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>345</v>
+        <v>114</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>374</v>
+        <v>116</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>346</v>
+        <v>117</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F98" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>123</v>
+        <v>373</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>34</v>
+        <v>345</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>125</v>
+        <v>374</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>8</v>
+        <v>346</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>23</v>
@@ -4413,34 +4401,36 @@
       <c r="D101" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E101" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="F101" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E102" s="5"/>
+        <v>123</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F102" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>23</v>
@@ -4449,32 +4439,32 @@
         <v>6</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>7</v>
@@ -4484,117 +4474,118 @@
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>401</v>
+        <v>133</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>402</v>
+        <v>134</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F107" s="6" t="s">
-        <v>403</v>
+        <v>6</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" s="5"/>
       <c r="F108" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>143</v>
+        <v>401</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>144</v>
+        <v>402</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>91</v>
+        <v>312</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>23</v>
@@ -4602,19 +4593,16 @@
       <c r="D112" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="F112" s="2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>23</v>
@@ -4622,19 +4610,16 @@
       <c r="D113" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="F113" s="2" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>23</v>
@@ -4643,15 +4628,15 @@
         <v>6</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>23</v>
@@ -4659,22 +4644,28 @@
       <c r="D115" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E115" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="F115" s="2" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>34</v>
@@ -4682,10 +4673,10 @@
     </row>
     <row r="117" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>23</v>
@@ -4694,33 +4685,32 @@
         <v>6</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E118" s="5"/>
+        <v>155</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F118" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>23</v>
@@ -4729,58 +4719,67 @@
         <v>6</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>375</v>
+        <v>163</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>347</v>
+        <v>164</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>7</v>
@@ -4789,285 +4788,274 @@
         <v>6</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>348</v>
+        <v>167</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" s="5"/>
+      <c r="F124" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>171</v>
+        <v>375</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>20</v>
+        <v>347</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>414</v>
+        <v>169</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>415</v>
+        <v>170</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>310</v>
+        <v>6</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>6</v>
+        <v>348</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>312</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>175</v>
+        <v>397</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>349</v>
+        <v>398</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>6</v>
+        <v>312</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>115</v>
+        <v>349</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>312</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>394</v>
+        <v>177</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>391</v>
+        <v>178</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>312</v>
+        <v>6</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>184</v>
+        <v>395</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>185</v>
+        <v>392</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>183</v>
+        <v>312</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>186</v>
+        <v>394</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>187</v>
+        <v>391</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>34</v>
+        <v>312</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E141" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="F141" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>7</v>
@@ -5076,323 +5064,323 @@
         <v>6</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>8</v>
+        <v>183</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>421</v>
+        <v>186</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>422</v>
+        <v>187</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>312</v>
+        <v>6</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>376</v>
+        <v>188</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>350</v>
+        <v>189</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>183</v>
+        <v>8</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>195</v>
+        <v>421</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>196</v>
+        <v>422</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>39</v>
+        <v>312</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>197</v>
+        <v>376</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>68</v>
+        <v>350</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E148" s="5"/>
+        <v>193</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F148" s="2" t="s">
-        <v>115</v>
+        <v>183</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D149" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E149" s="5"/>
+        <v>195</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F149" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D150" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E150" s="5"/>
-      <c r="F150" s="2" t="s">
-        <v>20</v>
+        <v>486</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E151" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="F151" s="2" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>351</v>
+        <v>200</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E152" s="5"/>
+      <c r="F152" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E153" s="5"/>
       <c r="F153" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154" s="5"/>
       <c r="F154" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>213</v>
+        <v>377</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>39</v>
+        <v>351</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>183</v>
+        <v>39</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>388</v>
+        <v>215</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>410</v>
+        <v>216</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>411</v>
+        <v>217</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>7</v>
@@ -5401,86 +5389,83 @@
         <v>6</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>8</v>
+        <v>183</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>228</v>
+        <v>388</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>229</v>
+        <v>410</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E165" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="F165" s="2" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>231</v>
+        <v>411</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>23</v>
@@ -5489,15 +5474,15 @@
         <v>6</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>23</v>
@@ -5506,33 +5491,35 @@
         <v>6</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="C169" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D169" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E169" s="5"/>
+        <v>228</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="F169" s="2" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>23</v>
@@ -5546,207 +5533,217 @@
     </row>
     <row r="171" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B171" s="5" t="s">
-        <v>242</v>
+        <v>233</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D171" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E171" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F171" s="2" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>378</v>
+        <v>235</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>352</v>
+        <v>236</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>6</v>
+        <v>237</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E173" s="5"/>
+      <c r="F173" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>379</v>
+        <v>239</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>353</v>
+        <v>240</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>242</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E175" s="5"/>
       <c r="F175" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="216" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>245</v>
+        <v>378</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>413</v>
+        <v>233</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>310</v>
+        <v>6</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>246</v>
+        <v>379</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>115</v>
+        <v>353</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>324</v>
+        <v>243</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>325</v>
+        <v>244</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>326</v>
+        <v>39</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>381</v>
+        <v>245</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>354</v>
+        <v>320</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>248</v>
+        <v>412</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>249</v>
+        <v>413</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>183</v>
+        <v>310</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>382</v>
+        <v>246</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>355</v>
+        <v>247</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>250</v>
+        <v>324</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>251</v>
+        <v>325</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D183" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F183" s="2" t="s">
-        <v>51</v>
+        <v>326</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>252</v>
+        <v>381</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>99</v>
+        <v>354</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>7</v>
@@ -5755,97 +5752,91 @@
         <v>6</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>15</v>
+        <v>183</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>256</v>
+        <v>382</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>15</v>
+        <v>355</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>419</v>
+        <v>252</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>420</v>
+        <v>253</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>183</v>
+        <v>15</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>23</v>
@@ -5853,36 +5844,30 @@
       <c r="D191" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E191" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="F191" s="2" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>267</v>
+        <v>419</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>268</v>
+        <v>420</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>23</v>
@@ -5896,10 +5881,10 @@
     </row>
     <row r="194" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>23</v>
@@ -5913,10 +5898,10 @@
     </row>
     <row r="195" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>23</v>
@@ -5924,16 +5909,19 @@
       <c r="D195" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E195" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="F195" s="2" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>23</v>
@@ -5942,15 +5930,15 @@
         <v>6</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>23</v>
@@ -5964,10 +5952,10 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>23</v>
@@ -5976,33 +5964,32 @@
         <v>6</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>39</v>
+        <v>183</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B199" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="C199" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D199" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E199" s="5"/>
+        <v>273</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F199" s="2" t="s">
-        <v>183</v>
+        <v>68</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>23</v>
@@ -6010,70 +5997,68 @@
       <c r="D200" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E200" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="F200" s="2" t="s">
-        <v>183</v>
+        <v>34</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E203" s="5"/>
       <c r="F203" s="2" t="s">
-        <v>39</v>
+        <v>183</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>23</v>
@@ -6081,146 +6066,149 @@
       <c r="D204" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E204" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="F204" s="2" t="s">
-        <v>39</v>
+        <v>183</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B205" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="C205" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D205" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E205" s="5"/>
+        <v>286</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F205" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>389</v>
+        <v>288</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>390</v>
+        <v>289</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
-        <v>384</v>
+        <v>290</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>357</v>
+        <v>291</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>383</v>
+        <v>292</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>356</v>
+        <v>293</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>6</v>
+        <v>294</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E209" s="5"/>
+      <c r="F209" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>296</v>
+        <v>389</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>297</v>
+        <v>390</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>298</v>
+        <v>384</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>99</v>
+        <v>357</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>300</v>
+        <v>383</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F212" s="2" t="s">
-        <v>20</v>
+        <v>356</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>23</v>
@@ -6229,15 +6217,15 @@
         <v>6</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>23</v>
@@ -6246,15 +6234,15 @@
         <v>6</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>7</v>
@@ -6263,68 +6251,80 @@
         <v>6</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
-        <v>480</v>
+      <c r="A217" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>481</v>
+        <v>303</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>482</v>
+        <v>304</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>483</v>
+        <v>305</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>312</v>
+        <v>6</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>484</v>
+        <v>306</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>485</v>
+        <v>307</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>312</v>
+        <v>6</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>486</v>
+        <v>308</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>487</v>
+        <v>309</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>313</v>
+        <v>6</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F196" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F216">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F220">
       <sortCondition ref="A1:A196"/>
     </sortState>
   </autoFilter>
@@ -6332,7 +6332,7 @@
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B196 E203:E205 A217 A197:B216 E213:E216" xr:uid="{580F6754-85D6-4483-A88C-BDE52A62AAC9}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F107" r:id="rId1" xr:uid="{D69F219F-3811-465C-8772-373BE5FB2D1F}"/>
+    <hyperlink ref="F110" r:id="rId1" xr:uid="{D69F219F-3811-465C-8772-373BE5FB2D1F}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId2"/>
@@ -6420,6 +6420,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="88ebd88c-02b9-4f51-b0de-dd3becf8de8a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="96a83f3b-8347-4ba1-82f9-fe673303b220" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B762B6222AFFCC489B42E0529EE4ABC8" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b32ab374fe5bd1b4f05e15c1f64274aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="88ebd88c-02b9-4f51-b0de-dd3becf8de8a" xmlns:ns3="96a83f3b-8347-4ba1-82f9-fe673303b220" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbbfdcc4e129130c2a3db4ea288b45f9" ns2:_="" ns3:_="">
     <xsd:import namespace="88ebd88c-02b9-4f51-b0de-dd3becf8de8a"/>
@@ -6614,17 +6625,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="88ebd88c-02b9-4f51-b0de-dd3becf8de8a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="96a83f3b-8347-4ba1-82f9-fe673303b220" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27B72F3A-D025-4AC7-B6CD-F802C9C57606}">
   <ds:schemaRefs>
@@ -6634,6 +6634,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD79C434-4B1B-4646-B50D-548016E545B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="88ebd88c-02b9-4f51-b0de-dd3becf8de8a"/>
+    <ds:schemaRef ds:uri="96a83f3b-8347-4ba1-82f9-fe673303b220"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A3845F5-1D68-48F6-B78B-A45ABA09BE24}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6652,17 +6663,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD79C434-4B1B-4646-B50D-548016E545B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="88ebd88c-02b9-4f51-b0de-dd3becf8de8a"/>
-    <ds:schemaRef ds:uri="96a83f3b-8347-4ba1-82f9-fe673303b220"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{c427a8d0-e03b-4e31-b103-627eb3fdd31c}" enabled="0" method="" siteId="{c427a8d0-e03b-4e31-b103-627eb3fdd31c}" removed="1"/>

--- a/Data/TrustMark_Glossary raw file.xlsx
+++ b/Data/TrustMark_Glossary raw file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Glossary WIP\trustmark-glossary\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD66910-8BF7-42FF-A793-32163DA2568F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2B801E-57F6-4760-88C9-751CE67C58D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="22164" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="18408" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="536">
   <si>
     <t>Domain</t>
   </si>
@@ -2327,6 +2327,153 @@
 - Customer communications preferences
 Example:
 “Customer OPT status” → whether the consumer has opted in or out of communications</t>
+  </si>
+  <si>
+    <t>EDAP</t>
+  </si>
+  <si>
+    <t>EDAP typically means something like: Enterprise Data Access Platform (sometimes also called Enterprise Data &amp; Analytics Platform).
+Key idea:
+EDAP is the ingestion and standardisation layer
+Not the reporting or business logic layer</t>
+  </si>
+  <si>
+    <t>Campaign</t>
+  </si>
+  <si>
+    <t>A coordinated set of marketing activities designed to promote TrustMark, its Registered Businesses, or consumer awareness over a defined period.</t>
+  </si>
+  <si>
+    <t>Marketing Strategy / Campaign Plans</t>
+  </si>
+  <si>
+    <t>Brand Awareness</t>
+  </si>
+  <si>
+    <t>A measure of how familiar consumers or stakeholders are with TrustMark and what it represents.</t>
+  </si>
+  <si>
+    <t>Survey-based recognition or recall percentage</t>
+  </si>
+  <si>
+    <t>Brand Tracking Reports</t>
+  </si>
+  <si>
+    <t>Engagement Rate</t>
+  </si>
+  <si>
+    <t>A measure of how users interact with TrustMark content across digital channels.</t>
+  </si>
+  <si>
+    <t>(Total interactions ÷ total impressions) × 100</t>
+  </si>
+  <si>
+    <t>Digital Performance Reports</t>
+  </si>
+  <si>
+    <t>Impressions</t>
+  </si>
+  <si>
+    <t>The number of times TrustMark content is displayed to users, regardless of whether it is clicked or interacted with.</t>
+  </si>
+  <si>
+    <t>Count of content displays</t>
+  </si>
+  <si>
+    <t>Digital Analytics Platforms</t>
+  </si>
+  <si>
+    <t>Conversion</t>
+  </si>
+  <si>
+    <t>A desired action taken by a user after interacting with TrustMark marketing activity (for example visiting a Registered Business or downloading information).</t>
+  </si>
+  <si>
+    <t>Marketing Performance Reports</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>The agreed financial plan setting out expected income and expenditure for TrustMark over a defined period.</t>
+  </si>
+  <si>
+    <t>Annual Budget Papers</t>
+  </si>
+  <si>
+    <t>Actuals</t>
+  </si>
+  <si>
+    <t>Recorded financial income and expenditure based on real transactions, rather than planned or forecast figures.</t>
+  </si>
+  <si>
+    <t>Management Accounts</t>
+  </si>
+  <si>
+    <t>Forecast</t>
+  </si>
+  <si>
+    <t>An estimate of TrustMark’s future financial performance based on current information and assumptions.</t>
+  </si>
+  <si>
+    <t>Forecast Reports</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>The difference between budgeted and actual financial figures for TrustMark.</t>
+  </si>
+  <si>
+    <t>Actuals – Budget</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Funds received by TrustMark, including licence fees, subscriptions, and other agreed revenue streams.</t>
+  </si>
+  <si>
+    <t>Financial Statements</t>
+  </si>
+  <si>
+    <t>Reach</t>
+  </si>
+  <si>
+    <t>The number of unique individuals who have seen TrustMark marketing content over a defined period.</t>
+  </si>
+  <si>
+    <t>Count of unique users</t>
+  </si>
+  <si>
+    <t>Click-Through Rate (CTR)</t>
+  </si>
+  <si>
+    <t>The proportion of users who click on TrustMark marketing content after seeing it.</t>
+  </si>
+  <si>
+    <t>(Clicks ÷ impressions) × 100</t>
+  </si>
+  <si>
+    <t>Cost per Acquisition (CPA)</t>
+  </si>
+  <si>
+    <t>The average cost of acquiring a desired outcome through TrustMark marketing activity (for example a sign-up or enquiry).</t>
+  </si>
+  <si>
+    <t>Marketing spend ÷ number of acquisitions</t>
+  </si>
+  <si>
+    <t>Website Sessions</t>
+  </si>
+  <si>
+    <t>The number of visits to the TrustMark website over a defined period.</t>
+  </si>
+  <si>
+    <t>Count of sessions</t>
+  </si>
+  <si>
+    <t>Website Analytics Reports</t>
   </si>
 </sst>
 </file>
@@ -2792,11 +2939,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F220"/>
+  <dimension ref="A1:F235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3264,55 +3411,58 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>329</v>
+        <v>484</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>330</v>
+        <v>485</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>11</v>
+        <v>329</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>12</v>
+        <v>330</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>7</v>
@@ -3320,16 +3470,13 @@
       <c r="D29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>7</v>
@@ -3341,12 +3488,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>7</v>
@@ -3355,196 +3502,208 @@
         <v>6</v>
       </c>
       <c r="F31" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="5"/>
+        <v>493</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>495</v>
+      </c>
       <c r="F35" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>24</v>
+        <v>359</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>27</v>
+        <v>508</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>28</v>
+        <v>509</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>29</v>
+        <v>314</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>15</v>
+        <v>510</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>318</v>
+        <v>24</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E40" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="F40" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>360</v>
+        <v>490</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>333</v>
+        <v>491</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>32</v>
+        <v>408</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>33</v>
+        <v>409</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>6</v>
+        <v>315</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>318</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>34</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>7</v>
@@ -3553,88 +3712,94 @@
         <v>6</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>40</v>
+        <v>360</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>361</v>
+        <v>37</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>399</v>
+        <v>526</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>400</v>
+        <v>527</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>6</v>
+        <v>313</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>23</v>
@@ -3643,15 +3808,15 @@
         <v>6</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>23</v>
@@ -3663,63 +3828,51 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>54</v>
+        <v>361</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>15</v>
+        <v>334</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>56</v>
+        <v>399</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>400</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>23</v>
@@ -3731,12 +3884,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>23</v>
@@ -3748,12 +3901,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>23</v>
@@ -3762,49 +3915,49 @@
         <v>6</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>23</v>
@@ -3813,75 +3966,86 @@
         <v>6</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>362</v>
+        <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E62" s="5"/>
+        <v>505</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>313</v>
+      </c>
       <c r="F62" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>75</v>
+        <v>529</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>530</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>6</v>
+        <v>313</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>531</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>480</v>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>481</v>
+        <v>65</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>7</v>
@@ -3889,21 +4053,33 @@
       <c r="D65" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F65" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>363</v>
+        <v>66</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>23</v>
@@ -3915,104 +4091,94 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E68" s="5"/>
-      <c r="F68" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>321</v>
+        <v>73</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>322</v>
+        <v>74</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>310</v>
+        <v>6</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>323</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>482</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>480</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E73" s="5"/>
-      <c r="F73" s="2" t="s">
-        <v>39</v>
+        <v>363</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>23</v>
@@ -4021,144 +4187,149 @@
         <v>6</v>
       </c>
       <c r="F74" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" s="5"/>
+      <c r="F75" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>87</v>
+        <v>364</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>20</v>
+        <v>337</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>89</v>
+        <v>321</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>90</v>
+        <v>322</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>6</v>
+        <v>310</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>366</v>
+        <v>81</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>385</v>
+        <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>386</v>
+        <v>482</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>95</v>
+        <v>483</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="5"/>
       <c r="F80" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>367</v>
+        <v>85</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>339</v>
+        <v>86</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>92</v>
+        <v>365</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>91</v>
+        <v>338</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>368</v>
+        <v>87</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>97</v>
+        <v>488</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>98</v>
+        <v>489</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>7</v>
@@ -4166,167 +4337,185 @@
       <c r="D84" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F84" s="2" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="85" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>416</v>
+        <v>366</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="C86" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D87" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>104</v>
+        <v>387</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F88" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>23</v>
@@ -4335,15 +4524,15 @@
         <v>6</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>23</v>
@@ -4352,137 +4541,118 @@
         <v>6</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>118</v>
+        <v>369</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>373</v>
+        <v>106</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>374</v>
+        <v>108</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>123</v>
+        <v>370</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>34</v>
+        <v>342</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>125</v>
+        <v>371</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>127</v>
+        <v>514</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>128</v>
+        <v>515</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>6</v>
+        <v>314</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>39</v>
+        <v>516</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E105" s="5"/>
-      <c r="F105" s="2" t="s">
-        <v>15</v>
+        <v>372</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>23</v>
@@ -4494,391 +4664,399 @@
         <v>68</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C107" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E108" s="5"/>
+      <c r="D108" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F108" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>137</v>
+        <v>373</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>401</v>
+        <v>374</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F110" s="6" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C111" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C115" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D111" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F111" s="2" t="s">
+      <c r="D115" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115" s="5"/>
+      <c r="F115" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F117" s="2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A112" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A115" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A116" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" s="5"/>
       <c r="F118" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>159</v>
+        <v>401</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>160</v>
+        <v>402</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>34</v>
+        <v>312</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E121" s="5"/>
+        <v>139</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F121" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>163</v>
+        <v>501</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>164</v>
+        <v>502</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>6</v>
+        <v>313</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>503</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>165</v>
+        <v>520</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>166</v>
+        <v>521</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>6</v>
+        <v>314</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E124" s="5"/>
+        <v>141</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F124" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>375</v>
+        <v>143</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>347</v>
+        <v>144</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>380</v>
+        <v>147</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E128" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="F128" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>414</v>
+        <v>153</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>415</v>
+        <v>154</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>404</v>
+        <v>155</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>405</v>
+        <v>156</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>23</v>
@@ -4886,13 +5064,16 @@
       <c r="D130" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F130" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>23</v>
@@ -4901,99 +5082,110 @@
         <v>6</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>397</v>
+        <v>159</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>398</v>
+        <v>160</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>312</v>
+        <v>161</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E133" s="5"/>
+      <c r="F133" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E136" s="5"/>
+      <c r="F136" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>177</v>
+        <v>375</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>7</v>
@@ -5002,153 +5194,138 @@
         <v>6</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D139" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A140" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D140" s="2" t="s">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>312</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A141" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A145" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>421</v>
+        <v>175</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>422</v>
+        <v>176</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>376</v>
+        <v>175</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>193</v>
+        <v>406</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>194</v>
+        <v>407</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>23</v>
@@ -5156,16 +5333,13 @@
       <c r="D148" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F148" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>23</v>
@@ -5177,125 +5351,128 @@
         <v>39</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>486</v>
+        <v>179</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>487</v>
+        <v>180</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>197</v>
+        <v>395</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>198</v>
+        <v>392</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D152" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E152" s="5"/>
-      <c r="F152" s="2" t="s">
-        <v>115</v>
+        <v>394</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D153" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E153" s="5"/>
+        <v>181</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F153" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C154" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C154" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D154" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E154" s="5"/>
+      <c r="D154" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F154" s="2" t="s">
-        <v>20</v>
+        <v>183</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>377</v>
+        <v>188</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>351</v>
+        <v>189</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>7</v>
@@ -5304,222 +5481,201 @@
         <v>6</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>209</v>
+        <v>421</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>210</v>
+        <v>422</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>39</v>
+        <v>312</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>211</v>
+        <v>376</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F159" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F161" s="2" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A160" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>217</v>
+        <v>486</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>218</v>
+        <v>487</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>183</v>
+        <v>313</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E163" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="F163" s="2" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C164" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C164" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D164" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D164" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E164" s="5"/>
       <c r="F164" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E165" s="5"/>
       <c r="F165" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C166" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C166" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D166" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D166" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E166" s="5"/>
       <c r="F166" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>226</v>
+        <v>377</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E169" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="F169" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>23</v>
@@ -5533,10 +5689,10 @@
     </row>
     <row r="171" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>23</v>
@@ -5545,15 +5701,15 @@
         <v>6</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>23</v>
@@ -5567,71 +5723,78 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="C173" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D173" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E173" s="5"/>
+        <v>215</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F173" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>39</v>
+        <v>183</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>242</v>
+        <v>219</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D175" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E175" s="5"/>
+      <c r="D175" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F175" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="216" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>378</v>
+        <v>221</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>352</v>
+        <v>222</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>233</v>
+        <v>410</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>7</v>
@@ -5639,187 +5802,219 @@
       <c r="D177" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F177" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>379</v>
+        <v>411</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>243</v>
+        <v>523</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>244</v>
+        <v>524</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>6</v>
+        <v>313</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>525</v>
       </c>
       <c r="F179" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="216" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F183" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A181" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C181" s="2" t="s">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A185" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E186" s="5"/>
+      <c r="F186" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C188" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D181" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A183" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A184" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A185" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A186" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A187" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A188" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D188" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E188" s="5"/>
       <c r="F188" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>254</v>
+        <v>378</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>15</v>
+        <v>352</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>256</v>
+        <v>418</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>7</v>
@@ -5827,138 +6022,114 @@
       <c r="D190" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F190" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>258</v>
+        <v>379</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>419</v>
+        <v>243</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>420</v>
+        <v>244</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>261</v>
+        <v>320</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E193" s="2" t="s">
+        <v>319</v>
+      </c>
       <c r="F193" s="2" t="s">
-        <v>39</v>
+        <v>317</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>262</v>
+        <v>412</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>263</v>
+        <v>413</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E195" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="F195" s="2" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>267</v>
+        <v>324</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>268</v>
+        <v>325</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>68</v>
+        <v>326</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>269</v>
+        <v>381</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>6</v>
@@ -5969,44 +6140,35 @@
     </row>
     <row r="199" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>273</v>
+        <v>382</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>23</v>
@@ -6015,50 +6177,49 @@
         <v>6</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B203" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="C203" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D203" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E203" s="5"/>
+        <v>256</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F203" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>23</v>
@@ -6066,19 +6227,16 @@
       <c r="D204" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E204" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="F204" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>286</v>
+        <v>419</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>287</v>
+        <v>420</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>7</v>
@@ -6086,33 +6244,30 @@
       <c r="D205" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F205" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="206" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>23</v>
@@ -6121,15 +6276,15 @@
         <v>6</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>39</v>
+        <v>183</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>23</v>
@@ -6137,78 +6292,104 @@
       <c r="D208" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E208" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="F208" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A209" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F210" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A209" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B209" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="C209" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D209" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E209" s="5"/>
-      <c r="F209" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A210" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>384</v>
+        <v>271</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>383</v>
+        <v>273</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>356</v>
+        <v>274</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>328</v>
+        <v>276</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F213" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>23</v>
@@ -6217,15 +6398,15 @@
         <v>6</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>23</v>
@@ -6234,97 +6415,339 @@
         <v>6</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E216" s="5"/>
       <c r="F216" s="2" t="s">
-        <v>20</v>
+        <v>183</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A222" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E222" s="5"/>
+      <c r="F222" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A223" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A224" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A225" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A226" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A227" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A228" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A229" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A231" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B231" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F217" s="2" t="s">
+      <c r="C231" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F231" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A218" s="2" t="s">
+    <row r="232" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A232" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B232" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F218" s="2" t="s">
+      <c r="C232" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F232" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="144" x14ac:dyDescent="0.3">
-      <c r="A219" s="2" t="s">
+    <row r="233" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A233" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A234" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B234" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C219" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F219" s="2" t="s">
+      <c r="C234" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F234" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A220" s="2" t="s">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A235" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B235" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="C235" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D220" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F220" s="2" t="s">
+      <c r="D235" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F235" s="2" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F196" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F220">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F235">
       <sortCondition ref="A1:A196"/>
     </sortState>
   </autoFilter>
@@ -6332,7 +6755,7 @@
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B196 E203:E205 A217 A197:B216 E213:E216" xr:uid="{580F6754-85D6-4483-A88C-BDE52A62AAC9}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F110" r:id="rId1" xr:uid="{D69F219F-3811-465C-8772-373BE5FB2D1F}"/>
+    <hyperlink ref="F120" r:id="rId1" xr:uid="{D69F219F-3811-465C-8772-373BE5FB2D1F}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId2"/>
@@ -6343,13 +6766,13 @@
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>E195 B195 A795:A839</xm:sqref>
+          <xm:sqref>E195 B195 A790:A834</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9995116D-AF03-49E2-B186-C142F64F6C88}">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D447</xm:sqref>
+          <xm:sqref>D2:D221 D236:D442</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6420,17 +6843,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="88ebd88c-02b9-4f51-b0de-dd3becf8de8a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="96a83f3b-8347-4ba1-82f9-fe673303b220" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B762B6222AFFCC489B42E0529EE4ABC8" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b32ab374fe5bd1b4f05e15c1f64274aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="88ebd88c-02b9-4f51-b0de-dd3becf8de8a" xmlns:ns3="96a83f3b-8347-4ba1-82f9-fe673303b220" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbbfdcc4e129130c2a3db4ea288b45f9" ns2:_="" ns3:_="">
     <xsd:import namespace="88ebd88c-02b9-4f51-b0de-dd3becf8de8a"/>
@@ -6625,6 +7037,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="88ebd88c-02b9-4f51-b0de-dd3becf8de8a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="96a83f3b-8347-4ba1-82f9-fe673303b220" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27B72F3A-D025-4AC7-B6CD-F802C9C57606}">
   <ds:schemaRefs>
@@ -6634,17 +7057,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD79C434-4B1B-4646-B50D-548016E545B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="88ebd88c-02b9-4f51-b0de-dd3becf8de8a"/>
-    <ds:schemaRef ds:uri="96a83f3b-8347-4ba1-82f9-fe673303b220"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A3845F5-1D68-48F6-B78B-A45ABA09BE24}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6663,6 +7075,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD79C434-4B1B-4646-B50D-548016E545B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="88ebd88c-02b9-4f51-b0de-dd3becf8de8a"/>
+    <ds:schemaRef ds:uri="96a83f3b-8347-4ba1-82f9-fe673303b220"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{c427a8d0-e03b-4e31-b103-627eb3fdd31c}" enabled="0" method="" siteId="{c427a8d0-e03b-4e31-b103-627eb3fdd31c}" removed="1"/>

--- a/Data/TrustMark_Glossary raw file.xlsx
+++ b/Data/TrustMark_Glossary raw file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Glossary WIP\trustmark-glossary\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2B801E-57F6-4760-88C9-751CE67C58D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221A434A-5DD4-4033-BD9D-931C40F9B633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="18408" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1004,14 +1004,6 @@
     <t>RSS = 100 x (((6 x sum Cat1 measures) + (3 x sum Major measures) + sum Minor measures)/sum measures audited)/6</t>
   </si>
   <si>
-    <t>The construct of the metric assigns a different weight to the severity of the non-compliance as follows;
-Cat1: 6
-Major: 3
-Minor: 1
-So, a Cat1 non compliance is considered to be twice as severe as a Major and 6 times more severe than a Minor non compliance. These weights have been defined deterministically and can be altered if required in future development work. Essentially this produces a weighted average of the severity of the non compliance across the measures in a project, or any level of aggregation such as an individual installer, RC, RA etc.
-The score is thenm normalised to a range of 0 to 100 by initially dividing by 6. If all the measures were a Cat1 then the total score would be 6, so dividing by 6 brings it in the range of 0 to 1. For easier use, the score is then multiplied by 100 to convert into a range from 0 to 100.</t>
-  </si>
-  <si>
     <t>DoC</t>
   </si>
   <si>
@@ -2474,6 +2466,15 @@
   </si>
   <si>
     <t>Website Analytics Reports</t>
+  </si>
+  <si>
+    <t>"Risk Severity Score"
+The construct of the metric assigns a different weight to the severity of the non-compliance as follows;
+Cat1: 6
+Major: 3
+Minor: 1
+So, a Cat1 non compliance is considered to be twice as severe as a Major and 6 times more severe than a Minor non compliance. These weights have been defined deterministically and can be altered if required in future development work. Essentially this produces a weighted average of the severity of the non compliance across the measures in a project, or any level of aggregation such as an individual installer, RC, RA etc.
+The score is then normalised to a range of 0 to 100 by initially dividing by 6. If all the measures were a Cat1 then the total score would be 6, so dividing by 6 brings it in the range of 0 to 1. For easier use, the score is then multiplied by 100 to convert into a range from 0 to 100.</t>
   </si>
 </sst>
 </file>
@@ -2942,8 +2943,8 @@
   <dimension ref="A1:F235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2979,10 +2980,10 @@
     </row>
     <row r="2" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
@@ -2991,15 +2992,15 @@
         <v>312</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>26</v>
@@ -3008,18 +3009,18 @@
         <v>312</v>
       </c>
       <c r="E3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
@@ -3028,18 +3029,18 @@
         <v>312</v>
       </c>
       <c r="E4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -3048,15 +3049,15 @@
         <v>312</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
@@ -3065,18 +3066,18 @@
         <v>312</v>
       </c>
       <c r="E6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
@@ -3085,15 +3086,15 @@
         <v>312</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>26</v>
@@ -3102,18 +3103,18 @@
         <v>312</v>
       </c>
       <c r="E8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>26</v>
@@ -3122,15 +3123,15 @@
         <v>312</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>26</v>
@@ -3139,15 +3140,15 @@
         <v>312</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>26</v>
@@ -3156,15 +3157,15 @@
         <v>312</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>26</v>
@@ -3173,18 +3174,18 @@
         <v>312</v>
       </c>
       <c r="E12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>26</v>
@@ -3193,15 +3194,15 @@
         <v>312</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>26</v>
@@ -3210,15 +3211,15 @@
         <v>312</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>26</v>
@@ -3227,15 +3228,15 @@
         <v>312</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>26</v>
@@ -3244,15 +3245,15 @@
         <v>312</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>26</v>
@@ -3261,15 +3262,15 @@
         <v>312</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>26</v>
@@ -3278,18 +3279,18 @@
         <v>312</v>
       </c>
       <c r="E18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>23</v>
@@ -3298,15 +3299,15 @@
         <v>312</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>26</v>
@@ -3315,15 +3316,15 @@
         <v>312</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>23</v>
@@ -3332,15 +3333,15 @@
         <v>312</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>26</v>
@@ -3349,18 +3350,18 @@
         <v>312</v>
       </c>
       <c r="E22" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>26</v>
@@ -3369,18 +3370,18 @@
         <v>312</v>
       </c>
       <c r="E23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>26</v>
@@ -3389,15 +3390,15 @@
         <v>312</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>26</v>
@@ -3406,15 +3407,15 @@
         <v>312</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>512</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>23</v>
@@ -3423,10 +3424,10 @@
         <v>314</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>9</v>
       </c>
@@ -3443,12 +3444,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>7</v>
@@ -3457,12 +3458,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>330</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>7</v>
@@ -3471,7 +3472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
@@ -3488,7 +3489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>13</v>
       </c>
@@ -3505,7 +3506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>16</v>
       </c>
@@ -3522,15 +3523,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>18</v>
       </c>
@@ -3547,12 +3548,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>494</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>26</v>
@@ -3561,26 +3562,26 @@
         <v>313</v>
       </c>
       <c r="E35" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>508</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>509</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>23</v>
@@ -3589,10 +3590,10 @@
         <v>314</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
@@ -3610,7 +3611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>24</v>
       </c>
@@ -3627,7 +3628,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>27</v>
       </c>
@@ -3647,12 +3648,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>490</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>491</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>23</v>
@@ -3661,15 +3662,15 @@
         <v>313</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>409</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>23</v>
@@ -3678,7 +3679,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>315</v>
       </c>
@@ -3715,15 +3716,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>32</v>
       </c>
@@ -3757,7 +3758,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>37</v>
       </c>
@@ -3774,12 +3775,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>527</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>26</v>
@@ -3788,10 +3789,10 @@
         <v>313</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3828,7 +3829,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>44</v>
       </c>
@@ -3847,18 +3848,18 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>400</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>7</v>
@@ -3901,7 +3902,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>52</v>
       </c>
@@ -3918,7 +3919,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>54</v>
       </c>
@@ -3952,7 +3953,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>58</v>
       </c>
@@ -3969,7 +3970,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
@@ -3986,12 +3987,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>506</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>23</v>
@@ -4000,10 +4001,10 @@
         <v>313</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
@@ -4022,10 +4023,10 @@
     </row>
     <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>529</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>530</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>26</v>
@@ -4034,13 +4035,13 @@
         <v>313</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
@@ -4057,7 +4058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>66</v>
       </c>
@@ -4074,7 +4075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>69</v>
       </c>
@@ -4091,12 +4092,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -4117,7 +4118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>73</v>
       </c>
@@ -4151,12 +4152,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>479</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>481</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>7</v>
@@ -4165,12 +4166,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -4190,7 +4191,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>79</v>
       </c>
@@ -4208,20 +4209,20 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>7</v>
@@ -4230,7 +4231,7 @@
         <v>310</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -4250,12 +4251,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>483</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>7</v>
@@ -4282,7 +4283,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>85</v>
       </c>
@@ -4299,15 +4300,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>87</v>
       </c>
@@ -4324,12 +4325,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>489</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>7</v>
@@ -4355,12 +4356,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>23</v>
@@ -4374,7 +4375,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>95</v>
@@ -4391,7 +4392,7 @@
     </row>
     <row r="88" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>96</v>
@@ -4408,10 +4409,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -4434,12 +4435,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>498</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>26</v>
@@ -4448,21 +4449,21 @@
         <v>313</v>
       </c>
       <c r="E91" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>97</v>
       </c>
@@ -4479,7 +4480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>100</v>
       </c>
@@ -4498,10 +4499,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>417</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>7</v>
@@ -4510,7 +4511,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>102</v>
       </c>
@@ -4546,13 +4547,13 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>106</v>
       </c>
@@ -4569,7 +4570,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>108</v>
       </c>
@@ -4589,7 +4590,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>111</v>
       </c>
@@ -4606,28 +4607,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B103" s="2" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>514</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>515</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>23</v>
@@ -4636,15 +4637,15 @@
         <v>314</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -4698,23 +4699,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B110" s="2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>120</v>
       </c>
@@ -4768,7 +4769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>127</v>
       </c>
@@ -4785,7 +4786,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>129</v>
       </c>
@@ -4803,7 +4804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>131</v>
       </c>
@@ -4820,7 +4821,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>133</v>
       </c>
@@ -4837,7 +4838,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>135</v>
       </c>
@@ -4872,12 +4873,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>402</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>7</v>
@@ -4886,7 +4887,7 @@
         <v>312</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -4908,10 +4909,10 @@
     </row>
     <row r="122" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>502</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>26</v>
@@ -4920,18 +4921,18 @@
         <v>313</v>
       </c>
       <c r="E122" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>520</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>521</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>23</v>
@@ -4940,7 +4941,7 @@
         <v>314</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -4960,7 +4961,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>143</v>
       </c>
@@ -4977,7 +4978,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>145</v>
       </c>
@@ -4994,7 +4995,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>147</v>
       </c>
@@ -5014,7 +5015,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>150</v>
       </c>
@@ -5051,7 +5052,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>155</v>
       </c>
@@ -5068,7 +5069,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>157</v>
       </c>
@@ -5085,7 +5086,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>159</v>
       </c>
@@ -5102,7 +5103,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>161</v>
       </c>
@@ -5137,7 +5138,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>165</v>
       </c>
@@ -5154,7 +5155,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>167</v>
       </c>
@@ -5172,12 +5173,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -5197,15 +5198,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>171</v>
       </c>
@@ -5222,12 +5223,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>415</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>7</v>
@@ -5236,13 +5237,13 @@
         <v>310</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>405</v>
-      </c>
       <c r="C142" s="2" t="s">
         <v>23</v>
       </c>
@@ -5250,7 +5251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>173</v>
       </c>
@@ -5267,12 +5268,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>23</v>
@@ -5281,12 +5282,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>23</v>
@@ -5295,7 +5296,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>175</v>
       </c>
@@ -5317,16 +5318,16 @@
         <v>175</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>407</v>
-      </c>
       <c r="C148" s="2" t="s">
         <v>23</v>
       </c>
@@ -5334,7 +5335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>177</v>
       </c>
@@ -5351,7 +5352,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>179</v>
       </c>
@@ -5368,12 +5369,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>23</v>
@@ -5382,12 +5383,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>23</v>
@@ -5413,7 +5414,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>184</v>
       </c>
@@ -5447,7 +5448,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>188</v>
       </c>
@@ -5467,7 +5468,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>191</v>
       </c>
@@ -5484,12 +5485,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>7</v>
@@ -5498,15 +5499,15 @@
         <v>312</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>193</v>
       </c>
@@ -5523,7 +5524,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>195</v>
       </c>
@@ -5540,12 +5541,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>7</v>
@@ -5554,7 +5555,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>197</v>
       </c>
@@ -5592,7 +5593,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>202</v>
       </c>
@@ -5610,7 +5611,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>202</v>
       </c>
@@ -5645,12 +5646,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5704,7 +5705,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>213</v>
       </c>
@@ -5721,7 +5722,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>215</v>
       </c>
@@ -5738,7 +5739,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>217</v>
       </c>
@@ -5772,7 +5773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>221</v>
       </c>
@@ -5791,10 +5792,10 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>7</v>
@@ -5806,9 +5807,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>223</v>
@@ -5825,10 +5826,10 @@
     </row>
     <row r="179" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>523</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>524</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>26</v>
@@ -5837,13 +5838,13 @@
         <v>313</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="216" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>224</v>
       </c>
@@ -5860,7 +5861,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>226</v>
       </c>
@@ -5897,7 +5898,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>231</v>
       </c>
@@ -5914,7 +5915,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>233</v>
       </c>
@@ -5966,7 +5967,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>239</v>
       </c>
@@ -6003,15 +6004,15 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>233</v>
@@ -6025,13 +6026,13 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>243</v>
       </c>
@@ -6048,12 +6049,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>320</v>
+        <v>535</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>26</v>
@@ -6068,12 +6069,12 @@
         <v>317</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>413</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>7</v>
@@ -6082,7 +6083,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>246</v>
       </c>
@@ -6099,26 +6100,26 @@
         <v>115</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -6138,12 +6139,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -6214,7 +6215,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>258</v>
       </c>
@@ -6233,10 +6234,10 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>7</v>
@@ -6279,7 +6280,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>264</v>
       </c>
@@ -6316,7 +6317,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>269</v>
       </c>
@@ -6333,7 +6334,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>271</v>
       </c>
@@ -6350,7 +6351,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>273</v>
       </c>
@@ -6367,7 +6368,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>275</v>
       </c>
@@ -6401,7 +6402,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>279</v>
       </c>
@@ -6436,7 +6437,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>283</v>
       </c>
@@ -6473,7 +6474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>288</v>
       </c>
@@ -6490,7 +6491,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>290</v>
       </c>
@@ -6542,12 +6543,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>390</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>7</v>
@@ -6556,28 +6557,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B226" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>7</v>
@@ -6639,10 +6640,10 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B230" s="2" t="s">
         <v>517</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>518</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>26</v>
@@ -6651,13 +6652,13 @@
         <v>314</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>302</v>
       </c>
@@ -6674,7 +6675,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>304</v>
       </c>
@@ -6691,12 +6692,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>532</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>533</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>26</v>
@@ -6705,13 +6706,13 @@
         <v>313</v>
       </c>
       <c r="E233" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F233" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="F233" s="2" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>306</v>
       </c>
@@ -6843,6 +6844,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="88ebd88c-02b9-4f51-b0de-dd3becf8de8a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="96a83f3b-8347-4ba1-82f9-fe673303b220" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B762B6222AFFCC489B42E0529EE4ABC8" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b32ab374fe5bd1b4f05e15c1f64274aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="88ebd88c-02b9-4f51-b0de-dd3becf8de8a" xmlns:ns3="96a83f3b-8347-4ba1-82f9-fe673303b220" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbbfdcc4e129130c2a3db4ea288b45f9" ns2:_="" ns3:_="">
     <xsd:import namespace="88ebd88c-02b9-4f51-b0de-dd3becf8de8a"/>
@@ -7037,17 +7049,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="88ebd88c-02b9-4f51-b0de-dd3becf8de8a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="96a83f3b-8347-4ba1-82f9-fe673303b220" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27B72F3A-D025-4AC7-B6CD-F802C9C57606}">
   <ds:schemaRefs>
@@ -7057,6 +7058,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD79C434-4B1B-4646-B50D-548016E545B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="88ebd88c-02b9-4f51-b0de-dd3becf8de8a"/>
+    <ds:schemaRef ds:uri="96a83f3b-8347-4ba1-82f9-fe673303b220"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A3845F5-1D68-48F6-B78B-A45ABA09BE24}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7075,17 +7087,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD79C434-4B1B-4646-B50D-548016E545B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="88ebd88c-02b9-4f51-b0de-dd3becf8de8a"/>
-    <ds:schemaRef ds:uri="96a83f3b-8347-4ba1-82f9-fe673303b220"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{c427a8d0-e03b-4e31-b103-627eb3fdd31c}" enabled="0" method="" siteId="{c427a8d0-e03b-4e31-b103-627eb3fdd31c}" removed="1"/>
